--- a/Data/AverageExpression_2dpf_res.6_dlk2.xlsx
+++ b/Data/AverageExpression_2dpf_res.6_dlk2.xlsx
@@ -1,238 +1,241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2dpf" r:id="rId3" sheetId="1"/>
+    <sheet name="2dpf" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t>dlk2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t xml:space="preserve">row.names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +246,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -261,576 +264,874 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B70" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B70"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="row.names"/>
+    <tableColumn id="2" name="V1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04520434064370368</v>
+        <v>0.0452043406437037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>0.0358352296142338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>0.0150824102898236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03583522961423376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0</v>
+        <v>0.0167926975268903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.015082410289823595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0</v>
+        <v>0.0584044764439787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.016792697526890346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05840447644397867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0</v>
+        <v>0.028927508505673</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.028927508505672998</v>
+        <v>0.00455441432053604</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>0.0193311351281253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.004554414320536037</v>
+        <v>0.0159899710901323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01933113512812529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.015989971090132272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>0.0144034107276603</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>0.00571034394543652</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0.014403410727660312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0.005710343945436522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>